--- a/docs/bcparks.ca domains.xlsx
+++ b/docs/bcparks.ca domains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sfp.idir.bcgov\s140\S40206\PPAD\_Marketing &amp; Partnerships\Web\CMS Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4698DA66-E96E-4C0E-BB05-2A024D670904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E28B0F0-96CB-467E-87AD-55C2B66C0A71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21825" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E43966D4-44BC-42F1-B6B1-5E575D7EFA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E43966D4-44BC-42F1-B6B1-5E575D7EFA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Domains" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
-  <si>
-    <t>API endpoint access</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>BC Parks Staff Portal / staff app</t>
   </si>
@@ -56,12 +53,6 @@
     <t>Strapi admin test environment</t>
   </si>
   <si>
-    <t>API development environment</t>
-  </si>
-  <si>
-    <t>API test environment</t>
-  </si>
-  <si>
     <t>Staff Portal development environment</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>ResourceSpace / Digital Asset Management System</t>
   </si>
   <si>
-    <t xml:space="preserve">BC Parks beta site </t>
-  </si>
-  <si>
     <t>OpenShift URL</t>
   </si>
   <si>
@@ -143,44 +131,77 @@
     <t>Photos/DAM</t>
   </si>
   <si>
-    <t>Beta Site</t>
-  </si>
-  <si>
     <t>Subdomain</t>
   </si>
   <si>
-    <t>API tools environment</t>
-  </si>
-  <si>
     <t>Strapi tools environment</t>
   </si>
   <si>
     <t>Staff Portal tools environment</t>
   </si>
   <si>
-    <t>BC Parks beta site development environment</t>
-  </si>
-  <si>
-    <t>BC Parks beta site test environment</t>
-  </si>
-  <si>
-    <t>BC Parks beta site tools environment</t>
-  </si>
-  <si>
     <t>staging</t>
   </si>
   <si>
-    <t>Staging/Gatsby</t>
-  </si>
-  <si>
     <t>photos</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>142.34.194.118</t>
+  </si>
+  <si>
+    <t>184.168.131.241</t>
+  </si>
+  <si>
+    <t>API endpoint access (now using *cms.bcparks.ca for this)</t>
+  </si>
+  <si>
+    <t>API development environment (now using *cms.bcparks.ca for this)</t>
+  </si>
+  <si>
+    <t>API test environment (now using *cms.bcparks.ca for this)</t>
+  </si>
+  <si>
+    <t>API tools environment (now using *cms.bcparks.ca for this)</t>
+  </si>
+  <si>
+    <t>BC Parks beta Gatsby prod site in OpenShift test environment</t>
+  </si>
+  <si>
+    <t>BC Parks beta Gatsby prod site in OpenShift development environment</t>
+  </si>
+  <si>
+    <t>BC Parks beta Gatsby prod site in OpenShift production environment</t>
+  </si>
+  <si>
+    <t>BC Parks beta Gatsby prod site in OpenShift tools environment</t>
+  </si>
+  <si>
+    <t>BC Parks beta Gatsby staging site in OpenShift production environment</t>
+  </si>
+  <si>
+    <t>BC Parks beta Gatsby staging site in OpenShift development environment</t>
+  </si>
+  <si>
+    <t>BC Parks beta Gatsby staging site in OpenShift test environment</t>
+  </si>
+  <si>
+    <t>BC Parks beta Gatsby staging site in OpenShift tools environment</t>
+  </si>
+  <si>
+    <t>Beta Site Prod</t>
+  </si>
+  <si>
+    <t>Beta Site Staging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -199,6 +220,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -585,510 +612,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A72F3D0-AF36-41F0-BB79-058A43D7D3A3}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="63.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="str">
+        <f>IF(C2="prod",B2&amp;".bcparks.ca",C2&amp;"-"&amp;B2&amp;".bcparks.ca")</f>
+        <v>api.bcparks.ca</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="str">
+        <f>IF(C3="prod",B3&amp;".bcparks.ca",C3&amp;"-"&amp;B3&amp;".bcparks.ca")</f>
+        <v>dev-api.bcparks.ca</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="str">
+        <f>IF(C4="prod",B4&amp;".bcparks.ca",C4&amp;"-"&amp;B4&amp;".bcparks.ca")</f>
+        <v>test-api.bcparks.ca</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="str">
+        <f>IF(C5="prod",B5&amp;".bcparks.ca",C5&amp;"-"&amp;B5&amp;".bcparks.ca")</f>
+        <v>tools-api.bcparks.ca</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="str">
+        <f>IF(C6="prod",B6&amp;".bcparks.ca",C6&amp;"-"&amp;B6&amp;".bcparks.ca")</f>
+        <v>cms.bcparks.ca</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="str">
+        <f>IF(C7="prod",B7&amp;".bcparks.ca",C7&amp;"-"&amp;B7&amp;".bcparks.ca")</f>
+        <v>dev-cms.bcparks.ca</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="str">
+        <f>IF(C8="prod",B8&amp;".bcparks.ca",C8&amp;"-"&amp;B8&amp;".bcparks.ca")</f>
+        <v>test-cms.bcparks.ca</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="str">
+        <f>IF(C9="prod",B9&amp;".bcparks.ca",C9&amp;"-"&amp;B9&amp;".bcparks.ca")</f>
+        <v>tools-cms.bcparks.ca</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="str">
-        <f>IF(D2="prod",B2&amp;".bcparks.ca",D2&amp;"-"&amp;B2&amp;".bcparks.ca")</f>
-        <v>api.bcparks.ca</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="str">
+        <f>IF(C10="prod",B10&amp;".bcparks.ca",C10&amp;"-"&amp;B10&amp;".bcparks.ca")</f>
+        <v>staff.bcparks.ca</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="str">
-        <f t="shared" ref="A3:A22" si="0">IF(D3="prod",B3&amp;".bcparks.ca",D3&amp;"-"&amp;B3&amp;".bcparks.ca")</f>
-        <v>dev-api.bcparks.ca</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="str">
+        <f>IF(C11="prod",B11&amp;".bcparks.ca",C11&amp;"-"&amp;B11&amp;".bcparks.ca")</f>
+        <v>dev-staff.bcparks.ca</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="str">
+        <f>IF(C12="prod",B12&amp;".bcparks.ca",C12&amp;"-"&amp;B12&amp;".bcparks.ca")</f>
+        <v>test-staff.bcparks.ca</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>test-api.bcparks.ca</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="str">
+        <f>IF(C13="prod",B13&amp;".bcparks.ca",C13&amp;"-"&amp;B13&amp;".bcparks.ca")</f>
+        <v>tools-staff.bcparks.ca</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="str">
+        <f>IF(C14="prod",B14&amp;".bcparks.ca",C14&amp;"-"&amp;B14&amp;".bcparks.ca")</f>
+        <v>photos.bcparks.ca</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>tools-api.bcparks.ca</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="str">
+        <f>IF(C15="prod",B15&amp;".bcparks.ca",C15&amp;"-"&amp;B15&amp;".bcparks.ca")</f>
+        <v>dev-photos.bcparks.ca</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="str">
+        <f>IF(C16="prod",B16&amp;".bcparks.ca",C16&amp;"-"&amp;B16&amp;".bcparks.ca")</f>
+        <v>test-photos.bcparks.ca</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="str">
+        <f>IF(C17="prod",B17&amp;".bcparks.ca",C17&amp;"-"&amp;B17&amp;".bcparks.ca")</f>
+        <v>tools-photos.bcparks.ca</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="str">
+        <f>IF(C18="prod",B18&amp;".bcparks.ca",C18&amp;"-"&amp;B18&amp;".bcparks.ca")</f>
+        <v>beta.bcparks.ca</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>cms.bcparks.ca</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="str">
+        <f>IF(C19="prod",B19&amp;".bcparks.ca",C19&amp;"-"&amp;B19&amp;".bcparks.ca")</f>
+        <v>staging.bcparks.ca</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="str">
+        <f>IF(C20="prod",B20&amp;".bcparks.ca",C20&amp;"-"&amp;B20&amp;".bcparks.ca")</f>
+        <v>dev-beta.bcparks.ca</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>dev-cms.bcparks.ca</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>test-cms.bcparks.ca</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>tools-cms.bcparks.ca</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="D20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="str">
+        <f>IF(C21="prod",B21&amp;".bcparks.ca",C21&amp;"-"&amp;B21&amp;".bcparks.ca")</f>
+        <v>dev-staging.bcparks.ca</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="str">
+        <f>IF(C22="prod",B22&amp;".bcparks.ca",C22&amp;"-"&amp;B22&amp;".bcparks.ca")</f>
+        <v>test-beta.bcparks.ca</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>staff.bcparks.ca</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>dev-staff.bcparks.ca</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>test-staff.bcparks.ca</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>tools-staff.bcparks.ca</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="str">
+        <f>IF(C23="prod",B23&amp;".bcparks.ca",C23&amp;"-"&amp;B23&amp;".bcparks.ca")</f>
+        <v>test-staging.bcparks.ca</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="str">
+        <f>IF(C24="prod",B24&amp;".bcparks.ca",C24&amp;"-"&amp;B24&amp;".bcparks.ca")</f>
+        <v>tools-beta.bcparks.ca</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>photos.bcparks.ca</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="str">
+        <f>IF(C25="prod",B25&amp;".bcparks.ca",C25&amp;"-"&amp;B25&amp;".bcparks.ca")</f>
+        <v>tools-staging.bcparks.ca</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>dev-photos.bcparks.ca</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>test-photos.bcparks.ca</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>tools-photos.bcparks.ca</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>beta.bcparks.ca</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>dev-beta.bcparks.ca</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>test-beta.bcparks.ca</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>tools-beta.bcparks.ca</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>staging.bcparks.ca</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="str">
-        <f t="shared" ref="A23:A25" si="1">IF(D23="prod",B23&amp;".bcparks.ca",D23&amp;"-"&amp;B23&amp;".bcparks.ca")</f>
-        <v>dev-staging.bcparks.ca</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>test-staging.bcparks.ca</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>tools-staging.bcparks.ca</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{A213E13D-380C-42BD-89AC-78296EE8139A}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{2FBE465E-7D90-4C2F-9572-5CBE09AD0B93}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{3329216F-36CB-4AB6-B51E-5EAB223A8D63}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{4284EC94-44EF-4415-A47A-98E07FB70D33}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{CF12393E-C7A6-44C5-9C4E-F6C1327AAC9C}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{81C23125-595D-45D3-9FB7-DFE5045A1068}"/>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{A213E13D-380C-42BD-89AC-78296EE8139A}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{2FBE465E-7D90-4C2F-9572-5CBE09AD0B93}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{3329216F-36CB-4AB6-B51E-5EAB223A8D63}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{4284EC94-44EF-4415-A47A-98E07FB70D33}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{CF12393E-C7A6-44C5-9C4E-F6C1327AAC9C}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{81C23125-595D-45D3-9FB7-DFE5045A1068}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
